--- a/data/trans_bre/P31_3_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P31_3_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,12 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +545,19 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
-        <is>
-          <t>Brecha de género relativa</t>
-        </is>
-      </c>
+      <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Brecha de género relativa</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -590,6 +632,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,76</t>
+          <t>8,95</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>9,49</t>
+          <t>6,86</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,65</t>
+          <t>3,52</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7,65%</t>
+          <t>1,56</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>10,77%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,96%</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>10,32%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>7,67%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>3,81%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>1,74%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -642,32 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,24; 18,6</t>
+          <t>-0,34; 29,6</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,27; 14,14</t>
+          <t>2,09; 12,89</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,34; 7,4</t>
+          <t>-0,34; 7,5</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,37; 24,15</t>
+          <t>-6,42; 8,87</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,77; 16,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,35; 8,27</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-0,32; 45,08</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>2,27; 15,32</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-0,36; 8,42</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-6,87; 10,38</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -684,32 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>9,42</t>
+          <t>4,26</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>9,82</t>
+          <t>11,07</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>8,58</t>
+          <t>8,09</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>11,79%</t>
+          <t>14,08</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>12,17%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>10,85%</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>5,0%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>13,84%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>10,14%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>20,15%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -722,32 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,37; 15,19</t>
+          <t>-1,02; 9,24</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,21; 14,34</t>
+          <t>6,15; 16,5</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,26; 13,34</t>
+          <t>3,97; 12,79</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,46; 20,55</t>
+          <t>7,01; 21,14</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,52; 18,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,21; 17,7</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-1,14; 11,3</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>7,34; 21,72</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>4,83; 16,75</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>9,52; 32,33</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -764,32 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>12,17</t>
+          <t>10,05</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7,42</t>
+          <t>8,27</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,41</t>
+          <t>7,33</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>17,29%</t>
+          <t>10,47</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>9,5%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>10,17%</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>14,09%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>10,71%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>10,08%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>15,03%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -802,39 +1000,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,25; 18,92</t>
+          <t>2,88; 17,82</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,42; 12,61</t>
+          <t>2,63; 14,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,69; 12,91</t>
+          <t>2,17; 12,87</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,1; 28,91</t>
+          <t>3,25; 18,44</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,99; 17,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,25; 18,8</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>3,83; 27,49</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>3,55; 19,8</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>2,89; 18,88</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>4,65; 28,84</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>10,18</t>
+          <t>13,46</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>9,34</t>
+          <t>10,15</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7,52</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>12,97%</t>
+          <t>13,64</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>11,45%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>9,4%</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>17,61%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>12,45%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>19,86%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -882,44 +1140,222 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,87; 14,15</t>
+          <t>8,73; 18,68</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,41; 11,95</t>
+          <t>5,08; 15,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,52; 10,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,45; 18,84</t>
+          <t>5,67; 21,54</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,71; 15,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,56; 13,64</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>10,95; 25,68</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>6,03; 20,2</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>7,31; 33,84</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>9,87</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>9,55</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>7,13</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>11,85</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>12,52%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>11,78%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>8,9%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>16,45%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>7,0; 13,51</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>6,51; 12,25</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>4,31; 10,06</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>8,22; 15,82</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>8,65; 17,97</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>7,82; 15,5</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>5,25; 12,84</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>10,8; 22,62</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P31_3_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P31_3_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,223 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>8,95</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>6,86</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>3,52</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>1,56</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>10,32%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>7,67%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>3,81%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>1,74%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="n">
+        <v>7.439914953506054</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>7.099983989524583</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>3.504510307945496</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>1.992520443681156</v>
+      </c>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="6" t="n">
+        <v>0.08430794999058792</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.07949560369485997</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.03795288866747084</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.02227973864149627</v>
+      </c>
+      <c r="M4" s="6" t="inlineStr"/>
+      <c r="N4" s="6" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-0,34; 29,6</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>2,09; 12,89</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-0,34; 7,5</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-6,42; 8,87</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-0,32; 45,08</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>2,27; 15,32</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-0,36; 8,42</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-6,87; 10,38</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-0.5558907853963382</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>2.314642018372785</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.1407561636086122</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-6.055098312352563</v>
+      </c>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="6" t="n">
+        <v>-0.006335235784310356</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>0.02515463271682739</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.001493367606704167</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.06487831714357487</v>
+      </c>
+      <c r="M5" s="6" t="inlineStr"/>
+      <c r="N5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>25.88046527813701</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>13.6666393873833</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>7.539500401649106</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>9.393100623037055</v>
+      </c>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="6" t="n">
+        <v>0.366411111300304</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.1642154846829766</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.08469288601421256</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>0.1126818440851992</v>
+      </c>
+      <c r="M6" s="6" t="inlineStr"/>
+      <c r="N6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>4,26</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>11,07</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>8,09</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>14,08</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>5,0%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>13,84%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>10,14%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>20,15%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-1,02; 9,24</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>6,15; 16,5</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>3,97; 12,79</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>7,01; 21,14</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-1,14; 11,3</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>7,34; 21,72</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>4,83; 16,75</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>9,52; 32,33</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="n">
+        <v>4.021433174936472</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>10.62315273445656</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>8.053336666263933</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>13.90462300684966</v>
+      </c>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="6" t="n">
+        <v>0.04722755251823179</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.1319182007854285</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.1010196852159558</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.1983947416003262</v>
+      </c>
+      <c r="M7" s="6" t="inlineStr"/>
+      <c r="N7" s="6" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>10,05</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>8,27</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>7,33</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>10,47</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>14,09%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>10,71%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>10,08%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>15,03%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-1.536095003683128</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>5.747935325426493</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>3.801382076440272</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>7.181279619490886</v>
+      </c>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="inlineStr"/>
+      <c r="I8" s="6" t="n">
+        <v>-0.01736944617540952</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0.06743282994495105</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>0.0461826050582923</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>0.09622800359328064</v>
+      </c>
+      <c r="M8" s="6" t="inlineStr"/>
+      <c r="N8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>2,88; 17,82</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>2,63; 14,33</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>2,17; 12,87</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>3,25; 18,44</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>3,83; 27,49</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>3,55; 19,8</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>2,89; 18,88</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>4,65; 28,84</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>9.076702215107076</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>15.84424889245945</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>12.93799262951559</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>21.34435755916176</v>
+      </c>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="inlineStr"/>
+      <c r="I9" s="6" t="n">
+        <v>0.1111625726948083</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.2044997384685115</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.1688343437085476</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.3224008598592173</v>
+      </c>
+      <c r="M9" s="6" t="inlineStr"/>
+      <c r="N9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,291 +883,234 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>13,46</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>10,15</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>13,64</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>17,61%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>12,45%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>19,86%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>10.13866811587001</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>8.288279360999962</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>7.408364322794691</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>11.15459108621986</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>0.1433511576833703</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.107224854135237</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.101851961292517</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>0.1607728548183212</v>
+      </c>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>8,73; 18,68</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>5,08; 15,54</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>5,67; 21,54</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>10,95; 25,68</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>6,03; 20,2</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>7,31; 33,84</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>2.465644576838876</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>2.816876468634765</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>2.237358744783661</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>3.996006079891041</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>0.03301213248894606</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>0.03537113954394065</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>0.0293507674269242</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>0.05721758267443915</v>
+      </c>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>18.75876623507552</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>14.47900471614878</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>12.90486260633457</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>18.98567433008953</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>0.2941775823813726</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.1994697322428621</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>0.1884773678327714</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>0.3003330996937797</v>
+      </c>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>9,87</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>9,55</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>7,13</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>11,85</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>12,52%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>11,78%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>8,9%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>16,45%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>7,0; 13,51</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>6,51; 12,25</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>4,31; 10,06</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>8,22; 15,82</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>8,65; 17,97</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>7,82; 15,5</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>5,25; 12,84</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>10,8; 22,62</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C13" s="5" t="n">
+        <v>7.120660430897074</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>9.295897955323651</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>7.166526600127366</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>11.24428554137896</v>
+      </c>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="inlineStr"/>
+      <c r="I13" s="6" t="n">
+        <v>0.08858181901763271</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.1144814713773447</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.08936259238569193</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.1531240398903508</v>
+      </c>
+      <c r="M13" s="6" t="inlineStr"/>
+      <c r="N13" s="6" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>2.881306559706685</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>6.195540493904204</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>4.388146319156435</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>6.661099399363664</v>
+      </c>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="inlineStr"/>
+      <c r="I14" s="6" t="n">
+        <v>0.03437433706477453</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.07435092917287647</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>0.05331880436170069</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>0.08525366349045996</v>
+      </c>
+      <c r="M14" s="6" t="inlineStr"/>
+      <c r="N14" s="6" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>11.53570357497584</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>12.73018169886364</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>10.07302602134405</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>15.39640772682179</v>
+      </c>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="inlineStr"/>
+      <c r="I15" s="6" t="n">
+        <v>0.150185864176538</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.1618657813696235</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.1289414396766313</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.219086767125557</v>
+      </c>
+      <c r="M15" s="6" t="inlineStr"/>
+      <c r="N15" s="6" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
